--- a/medicine/Handicap/Je_trouverai_un_moyen/Je_trouverai_un_moyen.xlsx
+++ b/medicine/Handicap/Je_trouverai_un_moyen/Je_trouverai_un_moyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Je trouverai un moyen (Titre original : I’ll Find a Way) est un court-métrage documentaire canadien réalisé par Beverly Shaffer (en) et sorti en 1977. 
-Il a reçu l'Oscar du meilleur court métrage en prises de vues réelles en 1978[1].
-Une suite à ce documentaire est sortie une suite en 1999 par la même réalisatrice, intitulée Just a Wedding, à propos de la préparation du mariage de la petite fille devenue grande[2].
+Il a reçu l'Oscar du meilleur court métrage en prises de vues réelles en 1978.
+Une suite à ce documentaire est sortie une suite en 1999 par la même réalisatrice, intitulée Just a Wedding, à propos de la préparation du mariage de la petite fille devenue grande.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film raconte l'histoire d'une petite fille de neuf ans, Nadia DeFranco, atteinte d'une malformation de type spina bifida. Malgré son handicap, son rêve est d'aller à l'école comme les autres enfants.
 </t>
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original anglais : I’ll Find a Way
 Réalisation : Beverly Shaffer (en)
@@ -580,9 +596,11 @@
           <t>Nominations et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1978 : Oscar du meilleur court métrage en prises de vues réelles[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1978 : Oscar du meilleur court métrage en prises de vues réelles
 Nommé lors de la 32e cérémonie des British Academy Film Awards</t>
         </is>
       </c>
